--- a/SampleGradients30.xlsx
+++ b/SampleGradients30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranavaddepalli/School/Research/Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pranav\Research\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9687F1E5-0AA9-AB4E-9DFA-04430DFABF46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356C0403-5BBB-417E-8127-A0586D2BB9A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,17 +442,17 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -472,7 +472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -492,7 +492,7 @@
         <v>84.332110841892003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -512,7 +512,7 @@
         <v>77.630428853085121</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -532,7 +532,7 @@
         <v>67.948874119543788</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -552,7 +552,7 @@
         <v>58.218587215775443</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -572,7 +572,7 @@
         <v>48.094614429750258</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -592,7 +592,7 @@
         <v>44.488713935403133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -612,7 +612,7 @@
         <v>36.907080082867417</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -632,7 +632,7 @@
         <v>33.947445573465998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -652,7 +652,7 @@
         <v>33.849193605866454</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -672,7 +672,7 @@
         <v>33.267964694985061</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -692,7 +692,7 @@
         <v>34.406603373587892</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -712,7 +712,7 @@
         <v>29.278757010828119</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -732,7 +732,7 @@
         <v>18.354544421405372</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -752,7 +752,7 @@
         <v>9.0897380590319283</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -772,7 +772,7 @@
         <v>65.79186286491128</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -792,7 +792,7 @@
         <v>38.82504142299485</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -812,7 +812,7 @@
         <v>47.174391155497133</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -832,7 +832,7 @@
         <v>50.073684907909438</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -852,7 +852,7 @@
         <v>34.00091875113948</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -872,7 +872,7 @@
         <v>32.263872994875612</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -892,7 +892,7 @@
         <v>46.285444255064107</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -912,7 +912,7 @@
         <v>29.53192590898027</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -932,7 +932,7 @@
         <v>22.862031384125299</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -952,7 +952,7 @@
         <v>7.4523387732264181</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -972,7 +972,7 @@
         <v>2.045414748082294</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -992,7 +992,7 @@
         <v>-1.5216088682475239</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>-5.9365759097876936</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>-7.0578440598069712</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>-10.739224646984111</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>-10.591516117424121</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>-12.50183527231404</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>-8.791366276021046</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>-9.6551286629535991</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>-6.1713398197260432</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>-8.9264500327366711</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>-8.1353646929875065</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>-10.50713306590781</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>-12.249928211625541</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>-19.860767740442721</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>-24.315025686807331</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>-26.433285519317039</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>-27.187553042175409</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>-26.85775795567822</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>-35.657039046930556</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>-37.539472504685499</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>-42.909208743538521</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>-43.072692235196698</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>-47.19274681956815</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>-48.700871335796307</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>-51.710338727727532</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>-53.177221756363842</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>-54.816877622241478</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>-54.963989712704503</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>-57.073947749375499</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>-57.71713542521438</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>-58.124109969833789</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>-58.445217453909777</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>-58.07711693367775</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>-59.107459091293919</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>-59.288828190476551</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>-59.569597591853707</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>-59.797900233198369</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>-60.269575560748471</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>-60.168208591827231</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>-59.866270461400852</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>-59.446111367123457</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>-59.670280982851523</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>-59.210643367095578</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>-59.675918906567077</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>-59.688747916721773</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>-59.435285033243943</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>-59.257899750543537</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>-59.628629835390143</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>-59.908285470573233</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>-59.035269565374051</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>-58.680817470537228</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>-58.887675457540901</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>-58.790045989431192</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>-58.570363652515312</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>-58.818788310508133</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>-58.374610126981892</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>-58.622330619818911</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>-58.871434467772573</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>-59.509161257401352</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>-59.803124848687013</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>-59.768806032456858</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>-60.052491439379587</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>-59.088091277414513</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>-56.644021071738351</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>-57.298364712177808</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>-57.324849720839069</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>-56.732274851935927</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>-55.549207177791281</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>-55.225668346491837</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>-55.508128364134308</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>-55.621991409632138</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>-55.27752800286968</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>-55.221560485647217</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>-55.132896272383398</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2474,5 +2474,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>